--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d098224a35b0f2/Documents/My files/programming/Python/Project/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DA82427541F7ACA7EB8A6804C20CE6AE8DE15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E4B055C-59D8-4D41-82B7-F583C9756F90}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_AD4DA82427541F7ACA7EB8A6804C20CE6AE8DE15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE16A3B8-719D-489D-B200-1ABABE55C542}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-12660" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,115 +49,117 @@
     <t>0/1</t>
   </si>
   <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>NumberOfTime30-59DaysPastDueNotWorse</t>
+  </si>
+  <si>
+    <t>30-59天欠款逾期次数</t>
+  </si>
+  <si>
+    <t>DebtRatio</t>
+  </si>
+  <si>
+    <t>月债务支出、赡养费、生活费除以总收入（毛收入）</t>
+  </si>
+  <si>
+    <t>MonthlyIncome</t>
+  </si>
+  <si>
+    <t>月收入</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>NumberOfOpenCreditLinesAndLoans</t>
+  </si>
+  <si>
+    <t>公开贷款（如汽车和抵押的分期）和在线信用（比如信用卡）数量</t>
+  </si>
+  <si>
+    <t>NumberOfTimes90DaysLate</t>
+  </si>
+  <si>
+    <t>90天或以上贷款逾期未还的次数。</t>
+  </si>
+  <si>
+    <t>NumberRealEstateLoansOrLines</t>
+  </si>
+  <si>
+    <t>抵押和房地产数量（包括房屋净值信用额度）</t>
+  </si>
+  <si>
+    <t>NumberOfTime60-89DaysPastDueNotWorse</t>
+  </si>
+  <si>
+    <t>60-89天欠款逾期次数</t>
+  </si>
+  <si>
+    <t>NumberOfDependents</t>
+  </si>
+  <si>
+    <t>家庭成员数目（比如说配偶子女，但不包括他自己）</t>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance_r</t>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worse_1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debt_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worse_3m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estate_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worse_2m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RevolvingUtilizationOfUnsecuredLines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>信用卡总余额和个人信用额度（除了房地产和分期付款给债务，比如汽车贷款）除以总信用限制。</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>NumberOfTime30-59DaysPastDueNotWorse</t>
-  </si>
-  <si>
-    <t>30-59天欠款逾期次数</t>
-  </si>
-  <si>
-    <t>DebtRatio</t>
-  </si>
-  <si>
-    <t>月债务支出、赡养费、生活费除以总收入（毛收入）</t>
-  </si>
-  <si>
-    <t>MonthlyIncome</t>
-  </si>
-  <si>
-    <t>月收入</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>NumberOfOpenCreditLinesAndLoans</t>
-  </si>
-  <si>
-    <t>公开贷款（如汽车和抵押的分期）和在线信用（比如信用卡）数量</t>
-  </si>
-  <si>
-    <t>NumberOfTimes90DaysLate</t>
-  </si>
-  <si>
-    <t>90天或以上贷款逾期未还的次数。</t>
-  </si>
-  <si>
-    <t>NumberRealEstateLoansOrLines</t>
-  </si>
-  <si>
-    <t>抵押和房地产数量（包括房屋净值信用额度）</t>
-  </si>
-  <si>
-    <t>NumberOfTime60-89DaysPastDueNotWorse</t>
-  </si>
-  <si>
-    <t>60-89天欠款逾期次数</t>
-  </si>
-  <si>
-    <t>NumberOfDependents</t>
-  </si>
-  <si>
-    <t>家庭成员数目（比如说配偶子女，但不包括他自己）</t>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balance_r</t>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worse_1m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debt_r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worse_3m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Estate_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worse_2m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Family_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -555,7 +557,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -569,142 +571,142 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
